--- a/SchedulingData/static5/pso/scheduling1_12.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_12.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>74.48</v>
+        <v>75.2</v>
       </c>
       <c r="E2" t="n">
-        <v>27.712</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59.36</v>
+        <v>61.52</v>
       </c>
       <c r="E3" t="n">
-        <v>26.724</v>
+        <v>25.528</v>
       </c>
     </row>
     <row r="4">
@@ -504,207 +504,207 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>61.52</v>
       </c>
       <c r="D4" t="n">
-        <v>70.2</v>
+        <v>126.44</v>
       </c>
       <c r="E4" t="n">
-        <v>24.66</v>
+        <v>21.656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70.2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>123.08</v>
+        <v>77.5</v>
       </c>
       <c r="E5" t="n">
-        <v>21.492</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74.48</v>
+        <v>77.5</v>
       </c>
       <c r="D6" t="n">
-        <v>116.64</v>
+        <v>120.1</v>
       </c>
       <c r="E6" t="n">
-        <v>25.116</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>126.44</v>
       </c>
       <c r="D7" t="n">
-        <v>76.52</v>
+        <v>188.2</v>
       </c>
       <c r="E7" t="n">
-        <v>25.528</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>79.40000000000001</v>
+        <v>63</v>
       </c>
       <c r="E8" t="n">
-        <v>26.7</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>116.64</v>
+        <v>188.2</v>
       </c>
       <c r="D9" t="n">
-        <v>159.14</v>
+        <v>261.08</v>
       </c>
       <c r="E9" t="n">
-        <v>21.996</v>
+        <v>15.892</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>76.52</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>124.66</v>
+        <v>54.64</v>
       </c>
       <c r="E10" t="n">
-        <v>22.844</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>159.14</v>
+        <v>120.1</v>
       </c>
       <c r="D11" t="n">
-        <v>246.04</v>
+        <v>190.5</v>
       </c>
       <c r="E11" t="n">
-        <v>16.896</v>
+        <v>20.36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>124.66</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>201.96</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>20.204</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>123.08</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>176.8</v>
+        <v>127.56</v>
       </c>
       <c r="E13" t="n">
-        <v>17.74</v>
+        <v>21.524</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>176.8</v>
+        <v>127.56</v>
       </c>
       <c r="D14" t="n">
-        <v>217.3</v>
+        <v>207.06</v>
       </c>
       <c r="E14" t="n">
-        <v>14.82</v>
+        <v>18.144</v>
       </c>
     </row>
     <row r="15">
@@ -713,41 +713,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>54.64</v>
       </c>
       <c r="D15" t="n">
-        <v>55.28</v>
+        <v>102.78</v>
       </c>
       <c r="E15" t="n">
-        <v>26.152</v>
+        <v>23.052</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>217.3</v>
+        <v>63</v>
       </c>
       <c r="D16" t="n">
-        <v>287.48</v>
+        <v>127.7</v>
       </c>
       <c r="E16" t="n">
-        <v>11.872</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -755,70 +755,70 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>59.36</v>
+        <v>207.06</v>
       </c>
       <c r="D17" t="n">
-        <v>115.26</v>
+        <v>258.26</v>
       </c>
       <c r="E17" t="n">
-        <v>23.244</v>
+        <v>14.664</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>201.96</v>
+        <v>75.2</v>
       </c>
       <c r="D18" t="n">
-        <v>270.76</v>
+        <v>132.26</v>
       </c>
       <c r="E18" t="n">
-        <v>16.464</v>
+        <v>20.084</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>55.28</v>
+        <v>132.26</v>
       </c>
       <c r="D19" t="n">
-        <v>101</v>
+        <v>186.36</v>
       </c>
       <c r="E19" t="n">
-        <v>22.72</v>
+        <v>16.784</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>101</v>
+        <v>190.5</v>
       </c>
       <c r="D20" t="n">
-        <v>152.6</v>
+        <v>239.42</v>
       </c>
       <c r="E20" t="n">
-        <v>19.2</v>
+        <v>17.588</v>
       </c>
     </row>
     <row r="21">
@@ -827,55 +827,55 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>115.26</v>
+        <v>127.7</v>
       </c>
       <c r="D21" t="n">
-        <v>216.52</v>
+        <v>184</v>
       </c>
       <c r="E21" t="n">
-        <v>19.188</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>79.40000000000001</v>
+        <v>258.26</v>
       </c>
       <c r="D22" t="n">
-        <v>146.26</v>
+        <v>302.24</v>
       </c>
       <c r="E22" t="n">
-        <v>22.124</v>
+        <v>12.376</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>287.48</v>
+        <v>302.24</v>
       </c>
       <c r="D23" t="n">
-        <v>354.68</v>
+        <v>369.84</v>
       </c>
       <c r="E23" t="n">
-        <v>8.752000000000001</v>
+        <v>9.736000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -884,36 +884,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>270.76</v>
+        <v>239.42</v>
       </c>
       <c r="D24" t="n">
-        <v>330.28</v>
+        <v>304.8</v>
       </c>
       <c r="E24" t="n">
-        <v>12.152</v>
+        <v>14.64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>216.52</v>
+        <v>304.8</v>
       </c>
       <c r="D25" t="n">
-        <v>295.7</v>
+        <v>350.3</v>
       </c>
       <c r="E25" t="n">
-        <v>15.34</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="26">
@@ -922,36 +922,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>146.26</v>
+        <v>186.36</v>
       </c>
       <c r="D26" t="n">
-        <v>196.58</v>
+        <v>236.16</v>
       </c>
       <c r="E26" t="n">
-        <v>19.212</v>
+        <v>13.424</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>152.6</v>
+        <v>261.08</v>
       </c>
       <c r="D27" t="n">
-        <v>212.52</v>
+        <v>301.5</v>
       </c>
       <c r="E27" t="n">
-        <v>15.328</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="28">
@@ -960,93 +960,93 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>196.58</v>
+        <v>236.16</v>
       </c>
       <c r="D28" t="n">
-        <v>253.98</v>
+        <v>300.74</v>
       </c>
       <c r="E28" t="n">
-        <v>15.612</v>
+        <v>9.576000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>354.68</v>
+        <v>102.78</v>
       </c>
       <c r="D29" t="n">
-        <v>393.7</v>
+        <v>160</v>
       </c>
       <c r="E29" t="n">
-        <v>5.98</v>
+        <v>20.46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>253.98</v>
+        <v>350.3</v>
       </c>
       <c r="D30" t="n">
-        <v>324.68</v>
+        <v>418.72</v>
       </c>
       <c r="E30" t="n">
-        <v>12.132</v>
+        <v>7.468</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>393.7</v>
+        <v>184</v>
       </c>
       <c r="D31" t="n">
-        <v>458.9</v>
+        <v>253.12</v>
       </c>
       <c r="E31" t="n">
-        <v>2.56</v>
+        <v>13.688</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>246.04</v>
+        <v>160</v>
       </c>
       <c r="D32" t="n">
-        <v>310.74</v>
+        <v>222.92</v>
       </c>
       <c r="E32" t="n">
-        <v>13.516</v>
+        <v>17.288</v>
       </c>
     </row>
     <row r="33">
@@ -1055,74 +1055,74 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>212.52</v>
+        <v>222.92</v>
       </c>
       <c r="D33" t="n">
-        <v>250.64</v>
+        <v>277.6</v>
       </c>
       <c r="E33" t="n">
-        <v>12.156</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>310.74</v>
+        <v>253.12</v>
       </c>
       <c r="D34" t="n">
-        <v>355.64</v>
+        <v>303.9</v>
       </c>
       <c r="E34" t="n">
-        <v>10.156</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>355.64</v>
+        <v>277.6</v>
       </c>
       <c r="D35" t="n">
-        <v>410.54</v>
+        <v>346</v>
       </c>
       <c r="E35" t="n">
-        <v>6.776</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>330.28</v>
+        <v>301.5</v>
       </c>
       <c r="D36" t="n">
-        <v>405.58</v>
+        <v>360.1</v>
       </c>
       <c r="E36" t="n">
-        <v>7.732</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="37">
@@ -1131,36 +1131,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>250.64</v>
+        <v>346</v>
       </c>
       <c r="D37" t="n">
-        <v>307.76</v>
+        <v>394.96</v>
       </c>
       <c r="E37" t="n">
-        <v>9.564</v>
+        <v>6.424</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>410.54</v>
+        <v>300.74</v>
       </c>
       <c r="D38" t="n">
-        <v>444.34</v>
+        <v>353.04</v>
       </c>
       <c r="E38" t="n">
-        <v>4.536</v>
+        <v>6.456</v>
       </c>
     </row>
     <row r="39">
@@ -1169,55 +1169,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>324.68</v>
+        <v>353.04</v>
       </c>
       <c r="D39" t="n">
-        <v>389.04</v>
+        <v>418.56</v>
       </c>
       <c r="E39" t="n">
-        <v>9.276</v>
+        <v>3.024</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>295.7</v>
+        <v>360.1</v>
       </c>
       <c r="D40" t="n">
-        <v>379.04</v>
+        <v>409.96</v>
       </c>
       <c r="E40" t="n">
-        <v>11.076</v>
+        <v>7.884</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>405.58</v>
+        <v>303.9</v>
       </c>
       <c r="D41" t="n">
-        <v>446.66</v>
+        <v>359.8</v>
       </c>
       <c r="E41" t="n">
-        <v>4.764</v>
+        <v>7.24</v>
       </c>
     </row>
   </sheetData>
